--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H2">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J2">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.237840333333334</v>
+        <v>0.027767</v>
       </c>
       <c r="N2">
-        <v>12.713521</v>
+        <v>0.083301</v>
       </c>
       <c r="O2">
-        <v>0.4475167411500002</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="P2">
-        <v>0.4475167411500002</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="Q2">
-        <v>419.1765558526057</v>
+        <v>0.997029085893</v>
       </c>
       <c r="R2">
-        <v>3772.589002673451</v>
+        <v>8.973261773036999</v>
       </c>
       <c r="S2">
-        <v>0.3634205198242639</v>
+        <v>0.001785484971199825</v>
       </c>
       <c r="T2">
-        <v>0.3634205198242639</v>
+        <v>0.001785484971199824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>98.91277700000001</v>
+        <v>35.906979</v>
       </c>
       <c r="H3">
-        <v>296.738331</v>
+        <v>107.720937</v>
       </c>
       <c r="I3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J3">
-        <v>0.8120825131376513</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.231839666666666</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N3">
-        <v>15.695519</v>
+        <v>12.713521</v>
       </c>
       <c r="O3">
-        <v>0.5524832588499997</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="P3">
-        <v>0.5524832588499998</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="Q3">
-        <v>517.4957902487542</v>
+        <v>152.168043854353</v>
       </c>
       <c r="R3">
-        <v>4657.462112238789</v>
+        <v>1369.512394689177</v>
       </c>
       <c r="S3">
-        <v>0.4486619933133873</v>
+        <v>0.2725033394140931</v>
       </c>
       <c r="T3">
-        <v>0.4486619933133874</v>
+        <v>0.272503339414093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.04862266666667</v>
+        <v>35.906979</v>
       </c>
       <c r="H4">
-        <v>51.14586800000001</v>
+        <v>107.720937</v>
       </c>
       <c r="I4">
-        <v>0.1399706767982279</v>
+        <v>0.6107087147789413</v>
       </c>
       <c r="J4">
-        <v>0.1399706767982279</v>
+        <v>0.6107087147789412</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.237840333333334</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N4">
-        <v>12.713521</v>
+        <v>15.695519</v>
       </c>
       <c r="O4">
-        <v>0.4475167411500002</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="P4">
-        <v>0.4475167411500002</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="Q4">
-        <v>72.24934076458091</v>
+        <v>187.859557042367</v>
       </c>
       <c r="R4">
-        <v>650.2440668812282</v>
+        <v>1690.736013381303</v>
       </c>
       <c r="S4">
-        <v>0.06263922113730291</v>
+        <v>0.3364198903936483</v>
       </c>
       <c r="T4">
-        <v>0.06263922113730291</v>
+        <v>0.3364198903936483</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J5">
-        <v>0.1399706767982279</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.231839666666666</v>
+        <v>0.027767</v>
       </c>
       <c r="N5">
-        <v>15.695519</v>
+        <v>0.083301</v>
       </c>
       <c r="O5">
-        <v>0.5524832588499997</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="P5">
-        <v>0.5524832588499998</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="Q5">
-        <v>89.19566032949912</v>
+        <v>0.4733891055853334</v>
       </c>
       <c r="R5">
-        <v>802.7609429654919</v>
+        <v>4.260501950268001</v>
       </c>
       <c r="S5">
-        <v>0.07733145566092502</v>
+        <v>0.0008477477192105194</v>
       </c>
       <c r="T5">
-        <v>0.07733145566092503</v>
+        <v>0.0008477477192105192</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.839988000000001</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H6">
-        <v>17.519964</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.0479468100641207</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J6">
-        <v>0.04794681006412069</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>12.713521</v>
       </c>
       <c r="O6">
-        <v>0.4475167411500002</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="P6">
-        <v>0.4475167411500002</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="Q6">
-        <v>24.74893669258267</v>
+        <v>72.24934076458091</v>
       </c>
       <c r="R6">
-        <v>222.740430233244</v>
+        <v>650.2440668812282</v>
       </c>
       <c r="S6">
-        <v>0.02145700018843333</v>
+        <v>0.1293845023575352</v>
       </c>
       <c r="T6">
-        <v>0.02145700018843332</v>
+        <v>0.1293845023575352</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.839988000000001</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H7">
-        <v>17.519964</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.0479468100641207</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="J7">
-        <v>0.04794681006412069</v>
+        <v>0.2899643113254147</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.231839666666666</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N7">
         <v>15.695519</v>
       </c>
       <c r="O7">
-        <v>0.5524832588499997</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="P7">
-        <v>0.5524832588499998</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="Q7">
-        <v>30.55388087125733</v>
+        <v>89.19566032949913</v>
       </c>
       <c r="R7">
-        <v>274.984927841316</v>
+        <v>802.7609429654922</v>
       </c>
       <c r="S7">
-        <v>0.02648980987568737</v>
+        <v>0.159732061248669</v>
       </c>
       <c r="T7">
-        <v>0.02648980987568737</v>
+        <v>0.1597320612486689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.839988000000001</v>
+      </c>
+      <c r="H8">
+        <v>17.519964</v>
+      </c>
+      <c r="I8">
+        <v>0.09932697389564409</v>
+      </c>
+      <c r="J8">
+        <v>0.09932697389564407</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.027767</v>
+      </c>
+      <c r="N8">
+        <v>0.083301</v>
+      </c>
+      <c r="O8">
+        <v>0.002923627791763407</v>
+      </c>
+      <c r="P8">
+        <v>0.002923627791763407</v>
+      </c>
+      <c r="Q8">
+        <v>0.162158946796</v>
+      </c>
+      <c r="R8">
+        <v>1.459430521164</v>
+      </c>
+      <c r="S8">
+        <v>0.0002903951013530635</v>
+      </c>
+      <c r="T8">
+        <v>0.0002903951013530635</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.839988000000001</v>
+      </c>
+      <c r="H9">
+        <v>17.519964</v>
+      </c>
+      <c r="I9">
+        <v>0.09932697389564409</v>
+      </c>
+      <c r="J9">
+        <v>0.09932697389564407</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.237840333333334</v>
+      </c>
+      <c r="N9">
+        <v>12.713521</v>
+      </c>
+      <c r="O9">
+        <v>0.4462083687682946</v>
+      </c>
+      <c r="P9">
+        <v>0.4462083687682946</v>
+      </c>
+      <c r="Q9">
+        <v>24.74893669258267</v>
+      </c>
+      <c r="R9">
+        <v>222.740430233244</v>
+      </c>
+      <c r="S9">
+        <v>0.04432052699666633</v>
+      </c>
+      <c r="T9">
+        <v>0.04432052699666632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.839988000000001</v>
+      </c>
+      <c r="H10">
+        <v>17.519964</v>
+      </c>
+      <c r="I10">
+        <v>0.09932697389564409</v>
+      </c>
+      <c r="J10">
+        <v>0.09932697389564407</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.231839666666667</v>
+      </c>
+      <c r="N10">
+        <v>15.695519</v>
+      </c>
+      <c r="O10">
+        <v>0.5508680034399419</v>
+      </c>
+      <c r="P10">
+        <v>0.5508680034399419</v>
+      </c>
+      <c r="Q10">
+        <v>30.55388087125734</v>
+      </c>
+      <c r="R10">
+        <v>274.9849278413161</v>
+      </c>
+      <c r="S10">
+        <v>0.05471605179762468</v>
+      </c>
+      <c r="T10">
+        <v>0.05471605179762468</v>
       </c>
     </row>
   </sheetData>
